--- a/StructureDefinition-Immunization-pre-uv-ips.xlsx
+++ b/StructureDefinition-Immunization-pre-uv-ips.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-06T16:40:07+00:00</t>
+    <t>2021-09-07T22:17:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Immunization-pre-uv-ips.xlsx
+++ b/StructureDefinition-Immunization-pre-uv-ips.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-07T22:17:02+00:00</t>
+    <t>2021-09-08T17:02:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Immunization-pre-uv-ips.xlsx
+++ b/StructureDefinition-Immunization-pre-uv-ips.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-08T17:02:38+00:00</t>
+    <t>2021-09-08T17:47:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Immunization-pre-uv-ips.xlsx
+++ b/StructureDefinition-Immunization-pre-uv-ips.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-08T17:47:26+00:00</t>
+    <t>2021-09-10T17:11:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Immunization-pre-uv-ips.xlsx
+++ b/StructureDefinition-Immunization-pre-uv-ips.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-10T17:11:50+00:00</t>
+    <t>2021-09-13T04:33:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Immunization-pre-uv-ips.xlsx
+++ b/StructureDefinition-Immunization-pre-uv-ips.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-13T04:33:50+00:00</t>
+    <t>2021-09-13T18:22:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Immunization-pre-uv-ips.xlsx
+++ b/StructureDefinition-Immunization-pre-uv-ips.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-13T18:22:00+00:00</t>
+    <t>2021-09-14T16:43:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Immunization-pre-uv-ips.xlsx
+++ b/StructureDefinition-Immunization-pre-uv-ips.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-14T16:43:46+00:00</t>
+    <t>2021-09-14T17:14:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Immunization-pre-uv-ips.xlsx
+++ b/StructureDefinition-Immunization-pre-uv-ips.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-14T17:14:13+00:00</t>
+    <t>2021-09-23T15:43:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Immunization-pre-uv-ips.xlsx
+++ b/StructureDefinition-Immunization-pre-uv-ips.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-23T15:43:05+00:00</t>
+    <t>2021-10-04T14:09:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -649,7 +649,7 @@
     <t>Immunization.patient</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/uv/ips/StructureDefinition/Patient-uv-ips)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/uv/ips/StructureDefinition/Patient-pre-uv-ips)
 </t>
   </si>
   <si>

--- a/StructureDefinition-Immunization-pre-uv-ips.xlsx
+++ b/StructureDefinition-Immunization-pre-uv-ips.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.0.1</t>
+    <t>0.2.1</t>
   </si>
   <si>
     <t>Name</t>
